--- a/Data_Ryan/RGDP_forecasts.xlsx
+++ b/Data_Ryan/RGDP_forecasts.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyo/Developer/Backtesting for Portfolio Management/PMP/Data_Ryan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyo/Developer/PMP Github/PMP_December_8/Data_Ryan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2220D88D-548A-7A47-91FF-EBBE0D20C98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35267972-514B-0044-AE0D-AF38C01D8DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8DB73496-9C93-CF41-9218-CDE1B5439531}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{8DB73496-9C93-CF41-9218-CDE1B5439531}"/>
   </bookViews>
   <sheets>
     <sheet name="RGDP_forecasts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +54,9 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>EM</t>
   </si>
 </sst>
 </file>
@@ -903,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50704599-3EE0-1A4C-8BF4-8F1B4B5F4240}">
-  <dimension ref="A1:G665"/>
+  <dimension ref="A1:H665"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A650" workbookViewId="0">
+      <selection activeCell="H655" sqref="H655:H665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,7 +930,7 @@
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,8 +952,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>25750</v>
       </c>
@@ -948,7 +967,7 @@
         <v>2.9361749999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>25781</v>
       </c>
@@ -959,7 +978,7 @@
         <v>2.9361749999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>25812</v>
       </c>
@@ -970,7 +989,7 @@
         <v>2.9361749999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>25842</v>
       </c>
@@ -981,7 +1000,7 @@
         <v>2.99425E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>25873</v>
       </c>
@@ -992,7 +1011,7 @@
         <v>2.99425E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>25903</v>
       </c>
@@ -1003,7 +1022,7 @@
         <v>2.99425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>25934</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="G8">
         <v>4.4594250000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>25965</v>
       </c>
@@ -1024,8 +1046,11 @@
       <c r="G9">
         <v>4.4594250000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>25993</v>
       </c>
@@ -1035,8 +1060,11 @@
       <c r="G10">
         <v>4.4594250000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>26024</v>
       </c>
@@ -1046,8 +1074,11 @@
       <c r="G11">
         <v>4.4573500000000002E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>26054</v>
       </c>
@@ -1057,8 +1088,11 @@
       <c r="G12">
         <v>4.4573500000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>26085</v>
       </c>
@@ -1068,8 +1102,11 @@
       <c r="G13">
         <v>4.4573500000000002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>26115</v>
       </c>
@@ -1079,8 +1116,11 @@
       <c r="G14">
         <v>6.0183750000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>26146</v>
       </c>
@@ -1090,8 +1130,11 @@
       <c r="G15">
         <v>6.0183750000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>26177</v>
       </c>
@@ -1101,8 +1144,11 @@
       <c r="G16">
         <v>6.0183750000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>26207</v>
       </c>
@@ -1112,8 +1158,11 @@
       <c r="G17">
         <v>5.8275500000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>26238</v>
       </c>
@@ -1123,8 +1172,11 @@
       <c r="G18">
         <v>5.8275500000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>26268</v>
       </c>
@@ -1134,8 +1186,11 @@
       <c r="G19">
         <v>5.8275500000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>7.0599999985367257E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>26299</v>
       </c>
@@ -1145,8 +1200,11 @@
       <c r="G20">
         <v>6.1060749999999997E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>26330</v>
       </c>
@@ -1156,8 +1214,11 @@
       <c r="G21">
         <v>6.1060749999999997E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>26359</v>
       </c>
@@ -1167,8 +1228,11 @@
       <c r="G22">
         <v>6.1060749999999997E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>26390</v>
       </c>
@@ -1178,8 +1242,11 @@
       <c r="G23">
         <v>6.2375E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>26420</v>
       </c>
@@ -1189,8 +1256,11 @@
       <c r="G24">
         <v>6.2375E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26451</v>
       </c>
@@ -1200,8 +1270,11 @@
       <c r="G25">
         <v>6.2375E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26481</v>
       </c>
@@ -1211,8 +1284,11 @@
       <c r="G26">
         <v>5.7602250000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26512</v>
       </c>
@@ -1222,8 +1298,11 @@
       <c r="G27">
         <v>5.7602250000000001E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26543</v>
       </c>
@@ -1233,8 +1312,11 @@
       <c r="G28">
         <v>5.7602250000000001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>26573</v>
       </c>
@@ -1244,8 +1326,11 @@
       <c r="G29">
         <v>5.649175E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>26604</v>
       </c>
@@ -1255,8 +1340,11 @@
       <c r="G30">
         <v>5.649175E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>26634</v>
       </c>
@@ -1266,8 +1354,11 @@
       <c r="G31">
         <v>5.649175E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>3.8100000002198486E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>26665</v>
       </c>
@@ -1277,8 +1368,11 @@
       <c r="G32">
         <v>4.641675E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>26696</v>
       </c>
@@ -1288,8 +1382,11 @@
       <c r="G33">
         <v>4.641675E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>26724</v>
       </c>
@@ -1299,8 +1396,11 @@
       <c r="G34">
         <v>4.641675E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>26755</v>
       </c>
@@ -1310,8 +1410,11 @@
       <c r="G35">
         <v>3.9669000000000003E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>26785</v>
       </c>
@@ -1321,8 +1424,11 @@
       <c r="G36">
         <v>3.9669000000000003E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>26816</v>
       </c>
@@ -1332,8 +1438,11 @@
       <c r="G37">
         <v>3.9669000000000003E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>26846</v>
       </c>
@@ -1343,8 +1452,11 @@
       <c r="G38">
         <v>2.3413750000000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>26877</v>
       </c>
@@ -1354,8 +1466,11 @@
       <c r="G39">
         <v>2.3413750000000001E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>26908</v>
       </c>
@@ -1365,8 +1480,11 @@
       <c r="G40">
         <v>2.3413750000000001E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>26938</v>
       </c>
@@ -1376,8 +1494,11 @@
       <c r="G41">
         <v>6.61475E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>26969</v>
       </c>
@@ -1387,8 +1508,11 @@
       <c r="G42">
         <v>6.61475E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>26999</v>
       </c>
@@ -1398,8 +1522,11 @@
       <c r="G43">
         <v>6.61475E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>7.7600000008432257E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>27030</v>
       </c>
@@ -1409,8 +1536,11 @@
       <c r="G44">
         <v>8.4159999999999999E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>27061</v>
       </c>
@@ -1420,8 +1550,11 @@
       <c r="G45">
         <v>8.4159999999999999E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>27089</v>
       </c>
@@ -1431,8 +1564,11 @@
       <c r="G46">
         <v>8.4159999999999999E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>27120</v>
       </c>
@@ -1442,8 +1578,11 @@
       <c r="G47">
         <v>2.2620000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>27150</v>
       </c>
@@ -1453,8 +1592,11 @@
       <c r="G48">
         <v>2.2620000000000001E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>27181</v>
       </c>
@@ -1464,8 +1606,11 @@
       <c r="G49">
         <v>2.2620000000000001E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>27211</v>
       </c>
@@ -1475,8 +1620,11 @@
       <c r="G50">
         <v>1.7041500000000001E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>27242</v>
       </c>
@@ -1486,8 +1634,11 @@
       <c r="G51">
         <v>1.7041500000000001E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>27273</v>
       </c>
@@ -1497,8 +1648,11 @@
       <c r="G52">
         <v>1.7041500000000001E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>27303</v>
       </c>
@@ -1508,8 +1662,11 @@
       <c r="G53">
         <v>-4.2312499999999998E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>27334</v>
       </c>
@@ -1519,8 +1676,11 @@
       <c r="G54">
         <v>-4.2312499999999998E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>27364</v>
       </c>
@@ -1530,8 +1690,11 @@
       <c r="G55">
         <v>-4.2312499999999998E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>2.3100000029474099E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>27395</v>
       </c>
@@ -1541,8 +1704,11 @@
       <c r="G56">
         <v>5.4799999999999996E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>27426</v>
       </c>
@@ -1552,8 +1718,11 @@
       <c r="G57">
         <v>5.4799999999999996E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>27454</v>
       </c>
@@ -1563,8 +1732,11 @@
       <c r="G58">
         <v>5.4799999999999996E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>27485</v>
       </c>
@@ -1574,8 +1746,11 @@
       <c r="G59">
         <v>3.5744749999999999E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>27515</v>
       </c>
@@ -1585,8 +1760,11 @@
       <c r="G60">
         <v>3.5744749999999999E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>27546</v>
       </c>
@@ -1596,8 +1774,11 @@
       <c r="G61">
         <v>3.5744749999999999E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>27576</v>
       </c>
@@ -1607,8 +1788,11 @@
       <c r="G62">
         <v>6.2136499999999997E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>27607</v>
       </c>
@@ -1618,8 +1802,11 @@
       <c r="G63">
         <v>6.2136499999999997E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>27638</v>
       </c>
@@ -1629,8 +1816,11 @@
       <c r="G64">
         <v>6.2136499999999997E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>27668</v>
       </c>
@@ -1640,8 +1830,11 @@
       <c r="G65">
         <v>5.3703750000000001E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>27699</v>
       </c>
@@ -1651,8 +1844,11 @@
       <c r="G66">
         <v>5.3703750000000001E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>27729</v>
       </c>
@@ -1662,8 +1858,11 @@
       <c r="G67">
         <v>5.3703750000000001E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>8.7199999974798992E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>27760</v>
       </c>
@@ -1673,8 +1872,11 @@
       <c r="G68">
         <v>5.6381750000000001E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>27791</v>
       </c>
@@ -1684,8 +1886,11 @@
       <c r="G69">
         <v>5.6381750000000001E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>27820</v>
       </c>
@@ -1695,8 +1900,11 @@
       <c r="G70">
         <v>5.6381750000000001E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>27851</v>
       </c>
@@ -1706,8 +1914,11 @@
       <c r="G71">
         <v>5.3444249999999999E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>27881</v>
       </c>
@@ -1717,8 +1928,11 @@
       <c r="G72">
         <v>5.3444249999999999E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>27912</v>
       </c>
@@ -1728,8 +1942,11 @@
       <c r="G73">
         <v>5.3444249999999999E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>27942</v>
       </c>
@@ -1739,8 +1956,11 @@
       <c r="G74">
         <v>5.2643500000000003E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>27973</v>
       </c>
@@ -1750,8 +1970,11 @@
       <c r="G75">
         <v>5.2643500000000003E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>28004</v>
       </c>
@@ -1761,8 +1984,11 @@
       <c r="G76">
         <v>5.2643500000000003E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>28034</v>
       </c>
@@ -1772,8 +1998,11 @@
       <c r="G77">
         <v>5.2545250000000002E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>28065</v>
       </c>
@@ -1783,8 +2012,11 @@
       <c r="G78">
         <v>5.2545250000000002E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>28095</v>
       </c>
@@ -1794,8 +2026,11 @@
       <c r="G79">
         <v>5.2545250000000002E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>-1.5700000016532378E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>28126</v>
       </c>
@@ -1805,8 +2040,11 @@
       <c r="G80">
         <v>5.7278500000000003E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>28157</v>
       </c>
@@ -1816,8 +2054,11 @@
       <c r="G81">
         <v>5.7278500000000003E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>28185</v>
       </c>
@@ -1827,8 +2068,11 @@
       <c r="G82">
         <v>5.7278500000000003E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>28216</v>
       </c>
@@ -1838,8 +2082,11 @@
       <c r="G83">
         <v>5.7727250000000001E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>28246</v>
       </c>
@@ -1849,8 +2096,11 @@
       <c r="G84">
         <v>5.7727250000000001E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>28277</v>
       </c>
@@ -1860,8 +2110,11 @@
       <c r="G85">
         <v>5.7727250000000001E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>28307</v>
       </c>
@@ -1871,8 +2124,11 @@
       <c r="G86">
         <v>4.7549000000000001E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>28338</v>
       </c>
@@ -1882,8 +2138,11 @@
       <c r="G87">
         <v>4.7549000000000001E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>28369</v>
       </c>
@@ -1893,8 +2152,11 @@
       <c r="G88">
         <v>4.7549000000000001E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>28399</v>
       </c>
@@ -1904,8 +2166,11 @@
       <c r="G89">
         <v>4.2891249999999999E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>28430</v>
       </c>
@@ -1915,8 +2180,11 @@
       <c r="G90">
         <v>4.2891249999999999E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>28460</v>
       </c>
@@ -1926,8 +2194,11 @@
       <c r="G91">
         <v>4.2891249999999999E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>7.5700000013840141E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>28491</v>
       </c>
@@ -1937,8 +2208,11 @@
       <c r="G92">
         <v>3.809775E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>28522</v>
       </c>
@@ -1948,8 +2222,11 @@
       <c r="G93">
         <v>3.809775E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>28550</v>
       </c>
@@ -1959,8 +2236,11 @@
       <c r="G94">
         <v>3.809775E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>28581</v>
       </c>
@@ -1970,8 +2250,11 @@
       <c r="G95">
         <v>4.3415250000000002E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>28611</v>
       </c>
@@ -1981,8 +2264,11 @@
       <c r="G96">
         <v>4.3415250000000002E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>28642</v>
       </c>
@@ -1992,8 +2278,11 @@
       <c r="G97">
         <v>4.3415250000000002E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>28672</v>
       </c>
@@ -2003,8 +2292,11 @@
       <c r="G98">
         <v>2.5274250000000002E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>28703</v>
       </c>
@@ -2014,8 +2306,11 @@
       <c r="G99">
         <v>2.5274250000000002E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>28734</v>
       </c>
@@ -2025,8 +2320,11 @@
       <c r="G100">
         <v>2.5274250000000002E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>28764</v>
       </c>
@@ -2036,8 +2334,11 @@
       <c r="G101">
         <v>1.8708249999999999E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>28795</v>
       </c>
@@ -2047,8 +2348,11 @@
       <c r="G102">
         <v>1.8708249999999999E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>28825</v>
       </c>
@@ -2058,8 +2362,11 @@
       <c r="G103">
         <v>1.8708249999999999E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <v>0.11325977987889213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>28856</v>
       </c>
@@ -2069,8 +2376,11 @@
       <c r="G104">
         <v>4.6162499999999997E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>28887</v>
       </c>
@@ -2080,8 +2390,11 @@
       <c r="G105">
         <v>4.6162499999999997E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>28915</v>
       </c>
@@ -2091,8 +2404,11 @@
       <c r="G106">
         <v>4.6162499999999997E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>28946</v>
       </c>
@@ -2102,8 +2418,11 @@
       <c r="G107">
         <v>3.1884999999999999E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>28976</v>
       </c>
@@ -2113,8 +2432,11 @@
       <c r="G108">
         <v>3.1884999999999999E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>29007</v>
       </c>
@@ -2124,8 +2446,11 @@
       <c r="G109">
         <v>3.1884999999999999E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>29037</v>
       </c>
@@ -2135,8 +2460,11 @@
       <c r="G110">
         <v>-9.4004999999999991E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>29068</v>
       </c>
@@ -2146,8 +2474,11 @@
       <c r="G111">
         <v>-9.4004999999999991E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>29099</v>
       </c>
@@ -2157,8 +2488,11 @@
       <c r="G112">
         <v>-9.4004999999999991E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>29129</v>
       </c>
@@ -2168,8 +2502,11 @@
       <c r="G113">
         <v>-1.7634750000000001E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>29160</v>
       </c>
@@ -2179,8 +2516,11 @@
       <c r="G114">
         <v>-1.7634750000000001E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>29190</v>
       </c>
@@ -2190,8 +2530,11 @@
       <c r="G115">
         <v>-1.7634750000000001E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>7.5913246800000556E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>29221</v>
       </c>
@@ -2201,8 +2544,11 @@
       <c r="G116">
         <v>-6.1980000000000004E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>29252</v>
       </c>
@@ -2212,8 +2558,11 @@
       <c r="G117">
         <v>-6.1980000000000004E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>29281</v>
       </c>
@@ -2223,8 +2572,11 @@
       <c r="G118">
         <v>-6.1980000000000004E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>29312</v>
       </c>
@@ -2234,8 +2586,11 @@
       <c r="G119">
         <v>-1.7695499999999999E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>29342</v>
       </c>
@@ -2245,8 +2600,11 @@
       <c r="G120">
         <v>-1.7695499999999999E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>29373</v>
       </c>
@@ -2256,8 +2614,11 @@
       <c r="G121">
         <v>-1.7695499999999999E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>29403</v>
       </c>
@@ -2267,8 +2628,11 @@
       <c r="G122">
         <v>2.3552500000000001E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>29434</v>
       </c>
@@ -2278,8 +2642,11 @@
       <c r="G123">
         <v>2.3552500000000001E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>29465</v>
       </c>
@@ -2289,8 +2656,11 @@
       <c r="G124">
         <v>2.3552500000000001E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>29495</v>
       </c>
@@ -2300,8 +2670,11 @@
       <c r="G125">
         <v>2.2637000000000001E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>29526</v>
       </c>
@@ -2311,8 +2684,11 @@
       <c r="G126">
         <v>2.2637000000000001E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>29556</v>
       </c>
@@ -2322,8 +2698,11 @@
       <c r="G127">
         <v>2.2637000000000001E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>7.8341450159379988E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>29587</v>
       </c>
@@ -2333,8 +2712,11 @@
       <c r="G128">
         <v>2.0562750000000001E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>29618</v>
       </c>
@@ -2344,8 +2726,11 @@
       <c r="G129">
         <v>2.0562750000000001E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>29646</v>
       </c>
@@ -2355,8 +2740,11 @@
       <c r="G130">
         <v>2.0562750000000001E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>29677</v>
       </c>
@@ -2366,8 +2754,11 @@
       <c r="G131">
         <v>2.4868250000000001E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>29707</v>
       </c>
@@ -2377,8 +2768,11 @@
       <c r="G132">
         <v>2.4868250000000001E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>29738</v>
       </c>
@@ -2388,8 +2782,11 @@
       <c r="G133">
         <v>2.4868250000000001E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>29768</v>
       </c>
@@ -2399,8 +2796,11 @@
       <c r="G134">
         <v>2.4005249999999999E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>29799</v>
       </c>
@@ -2410,8 +2810,11 @@
       <c r="G135">
         <v>2.4005249999999999E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>29830</v>
       </c>
@@ -2421,8 +2824,11 @@
       <c r="G136">
         <v>2.4005249999999999E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>29860</v>
       </c>
@@ -2432,8 +2838,11 @@
       <c r="G137">
         <v>1.054625E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>29891</v>
       </c>
@@ -2443,8 +2852,11 @@
       <c r="G138">
         <v>1.054625E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>29921</v>
       </c>
@@ -2454,8 +2866,11 @@
       <c r="G139">
         <v>1.054625E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>5.1127610905895127E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>29952</v>
       </c>
@@ -2465,8 +2880,11 @@
       <c r="G140">
         <v>2.2190000000000001E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>29983</v>
       </c>
@@ -2476,8 +2894,11 @@
       <c r="G141">
         <v>2.2190000000000001E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>30011</v>
       </c>
@@ -2487,8 +2908,11 @@
       <c r="G142">
         <v>2.2190000000000001E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>30042</v>
       </c>
@@ -2498,8 +2922,11 @@
       <c r="G143">
         <v>2.5395500000000001E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>30072</v>
       </c>
@@ -2509,8 +2936,11 @@
       <c r="G144">
         <v>2.5395500000000001E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>30103</v>
       </c>
@@ -2520,8 +2950,11 @@
       <c r="G145">
         <v>2.5395500000000001E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>30133</v>
       </c>
@@ -2531,8 +2964,11 @@
       <c r="G146">
         <v>2.7112000000000001E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>30164</v>
       </c>
@@ -2542,8 +2978,11 @@
       <c r="G147">
         <v>2.7112000000000001E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>30195</v>
       </c>
@@ -2553,8 +2992,11 @@
       <c r="G148">
         <v>2.7112000000000001E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>30225</v>
       </c>
@@ -2564,8 +3006,11 @@
       <c r="G149">
         <v>2.7751999999999999E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>30256</v>
       </c>
@@ -2575,8 +3020,11 @@
       <c r="G150">
         <v>2.7751999999999999E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>30286</v>
       </c>
@@ -2586,8 +3034,11 @@
       <c r="G151">
         <v>2.7751999999999999E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <v>9.0592841706299998E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>30317</v>
       </c>
@@ -2597,8 +3048,11 @@
       <c r="G152">
         <v>3.8069249999999999E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>30348</v>
       </c>
@@ -2608,8 +3062,11 @@
       <c r="G153">
         <v>3.8069249999999999E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>30376</v>
       </c>
@@ -2619,8 +3076,11 @@
       <c r="G154">
         <v>3.8069249999999999E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>30407</v>
       </c>
@@ -2630,8 +3090,11 @@
       <c r="G155">
         <v>4.7347750000000001E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>30437</v>
       </c>
@@ -2641,8 +3104,11 @@
       <c r="G156">
         <v>4.7347750000000001E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>30468</v>
       </c>
@@ -2652,8 +3118,11 @@
       <c r="G157">
         <v>4.7347750000000001E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>30498</v>
       </c>
@@ -2663,8 +3132,11 @@
       <c r="G158">
         <v>5.0032500000000001E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>30529</v>
       </c>
@@ -2674,8 +3146,11 @@
       <c r="G159">
         <v>5.0032500000000001E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>30560</v>
       </c>
@@ -2685,8 +3160,11 @@
       <c r="G160">
         <v>5.0032500000000001E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>30590</v>
       </c>
@@ -2696,8 +3174,11 @@
       <c r="G161">
         <v>4.69865E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>30621</v>
       </c>
@@ -2707,8 +3188,11 @@
       <c r="G162">
         <v>4.69865E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>30651</v>
       </c>
@@ -2718,8 +3202,11 @@
       <c r="G163">
         <v>4.69865E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <v>0.10727370684210547</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>30682</v>
       </c>
@@ -2729,8 +3216,11 @@
       <c r="G164">
         <v>4.2024499999999999E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>30713</v>
       </c>
@@ -2740,8 +3230,11 @@
       <c r="G165">
         <v>4.2024499999999999E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>30742</v>
       </c>
@@ -2751,8 +3244,11 @@
       <c r="G166">
         <v>4.2024499999999999E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>30773</v>
       </c>
@@ -2762,8 +3258,11 @@
       <c r="G167">
         <v>3.6163500000000001E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>30803</v>
       </c>
@@ -2773,8 +3272,11 @@
       <c r="G168">
         <v>3.6163500000000001E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>30834</v>
       </c>
@@ -2784,8 +3286,11 @@
       <c r="G169">
         <v>3.6163500000000001E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>30864</v>
       </c>
@@ -2795,8 +3300,11 @@
       <c r="G170">
         <v>3.7189750000000001E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>30895</v>
       </c>
@@ -2806,8 +3314,11 @@
       <c r="G171">
         <v>3.7189750000000001E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>30926</v>
       </c>
@@ -2817,8 +3328,11 @@
       <c r="G172">
         <v>3.7189750000000001E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>30956</v>
       </c>
@@ -2828,8 +3342,11 @@
       <c r="G173">
         <v>3.1828000000000002E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>30987</v>
       </c>
@@ -2839,8 +3356,11 @@
       <c r="G174">
         <v>3.1828000000000002E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>31017</v>
       </c>
@@ -2850,8 +3370,11 @@
       <c r="G175">
         <v>3.1828000000000002E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175">
+        <v>0.15232560995508848</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>31048</v>
       </c>
@@ -2861,8 +3384,11 @@
       <c r="G176">
         <v>3.8834500000000001E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>31079</v>
       </c>
@@ -2872,8 +3398,11 @@
       <c r="G177">
         <v>3.8834500000000001E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>31107</v>
       </c>
@@ -2883,8 +3412,11 @@
       <c r="G178">
         <v>3.8834500000000001E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>31138</v>
       </c>
@@ -2894,8 +3426,11 @@
       <c r="G179">
         <v>3.2709750000000003E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>31168</v>
       </c>
@@ -2905,8 +3440,11 @@
       <c r="G180">
         <v>3.2709750000000003E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>31199</v>
       </c>
@@ -2916,8 +3454,11 @@
       <c r="G181">
         <v>3.2709750000000003E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>31229</v>
       </c>
@@ -2927,8 +3468,11 @@
       <c r="G182">
         <v>2.8139999999999998E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>31260</v>
       </c>
@@ -2938,8 +3482,11 @@
       <c r="G183">
         <v>2.8139999999999998E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>31291</v>
       </c>
@@ -2949,8 +3496,11 @@
       <c r="G184">
         <v>2.8139999999999998E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>31321</v>
       </c>
@@ -2960,8 +3510,11 @@
       <c r="G185">
         <v>2.9676999999999999E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>31352</v>
       </c>
@@ -2971,8 +3524,11 @@
       <c r="G186">
         <v>2.9676999999999999E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H186">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>31382</v>
       </c>
@@ -2982,8 +3538,11 @@
       <c r="G187">
         <v>2.9676999999999999E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H187">
+        <v>0.13435474366528943</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>31413</v>
       </c>
@@ -2993,8 +3552,11 @@
       <c r="G188">
         <v>3.1357749999999997E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>31444</v>
       </c>
@@ -3004,8 +3566,11 @@
       <c r="G189">
         <v>3.1357749999999997E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>31472</v>
       </c>
@@ -3015,8 +3580,11 @@
       <c r="G190">
         <v>3.1357749999999997E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>31503</v>
       </c>
@@ -3026,8 +3594,11 @@
       <c r="G191">
         <v>3.3569250000000002E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>31533</v>
       </c>
@@ -3037,8 +3608,11 @@
       <c r="G192">
         <v>3.3569250000000002E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>31564</v>
       </c>
@@ -3048,8 +3622,11 @@
       <c r="G193">
         <v>3.3569250000000002E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>31594</v>
       </c>
@@ -3059,8 +3636,11 @@
       <c r="G194">
         <v>2.75555E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>31625</v>
       </c>
@@ -3070,8 +3650,11 @@
       <c r="G195">
         <v>2.75555E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>31656</v>
       </c>
@@ -3081,8 +3664,11 @@
       <c r="G196">
         <v>2.75555E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>31686</v>
       </c>
@@ -3092,8 +3678,11 @@
       <c r="G197">
         <v>2.6883000000000001E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>31717</v>
       </c>
@@ -3103,8 +3692,11 @@
       <c r="G198">
         <v>2.6883000000000001E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>31747</v>
       </c>
@@ -3114,8 +3706,11 @@
       <c r="G199">
         <v>2.6883000000000001E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199">
+        <v>8.9350649350650402E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>31778</v>
       </c>
@@ -3125,8 +3720,11 @@
       <c r="G200">
         <v>2.8635750000000001E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>31809</v>
       </c>
@@ -3136,8 +3734,11 @@
       <c r="G201">
         <v>2.8635750000000001E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>31837</v>
       </c>
@@ -3147,8 +3748,11 @@
       <c r="G202">
         <v>2.8635750000000001E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>31868</v>
       </c>
@@ -3158,8 +3762,11 @@
       <c r="G203">
         <v>2.691325E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H203">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>31898</v>
       </c>
@@ -3169,8 +3776,11 @@
       <c r="G204">
         <v>2.691325E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>31929</v>
       </c>
@@ -3180,8 +3790,11 @@
       <c r="G205">
         <v>2.691325E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>31959</v>
       </c>
@@ -3191,8 +3804,11 @@
       <c r="G206">
         <v>2.7282000000000001E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>31990</v>
       </c>
@@ -3202,8 +3818,11 @@
       <c r="G207">
         <v>2.7282000000000001E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>32021</v>
       </c>
@@ -3213,8 +3832,11 @@
       <c r="G208">
         <v>2.7282000000000001E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>32051</v>
       </c>
@@ -3224,8 +3846,11 @@
       <c r="G209">
         <v>2.1707500000000001E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H209">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>32082</v>
       </c>
@@ -3235,8 +3860,11 @@
       <c r="G210">
         <v>2.1707500000000001E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H210">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>32112</v>
       </c>
@@ -3246,8 +3874,11 @@
       <c r="G211">
         <v>2.1707500000000001E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211">
+        <v>0.11628222565569879</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>32143</v>
       </c>
@@ -3257,8 +3888,11 @@
       <c r="G212">
         <v>1.527125E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>32174</v>
       </c>
@@ -3268,8 +3902,11 @@
       <c r="G213">
         <v>1.527125E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>32203</v>
       </c>
@@ -3279,8 +3916,11 @@
       <c r="G214">
         <v>1.527125E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H214">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>32234</v>
       </c>
@@ -3290,8 +3930,11 @@
       <c r="G215">
         <v>2.7525500000000001E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H215">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>32264</v>
       </c>
@@ -3301,8 +3944,11 @@
       <c r="G216">
         <v>2.7525500000000001E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>32295</v>
       </c>
@@ -3312,8 +3958,11 @@
       <c r="G217">
         <v>2.7525500000000001E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>32325</v>
       </c>
@@ -3323,8 +3972,11 @@
       <c r="G218">
         <v>2.8101500000000001E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H218">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>32356</v>
       </c>
@@ -3334,8 +3986,11 @@
       <c r="G219">
         <v>2.8101500000000001E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>32387</v>
       </c>
@@ -3345,8 +4000,11 @@
       <c r="G220">
         <v>2.8101500000000001E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H220">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>32417</v>
       </c>
@@ -3356,8 +4014,11 @@
       <c r="G221">
         <v>2.9083500000000002E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>32448</v>
       </c>
@@ -3367,8 +4028,11 @@
       <c r="G222">
         <v>2.9083500000000002E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H222">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>32478</v>
       </c>
@@ -3378,8 +4042,11 @@
       <c r="G223">
         <v>2.9083500000000002E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H223">
+        <v>0.11222594982520917</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>32509</v>
       </c>
@@ -3389,8 +4056,11 @@
       <c r="G224">
         <v>2.4156250000000001E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H224">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>32540</v>
       </c>
@@ -3400,8 +4070,11 @@
       <c r="G225">
         <v>2.4156250000000001E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>32568</v>
       </c>
@@ -3411,8 +4084,11 @@
       <c r="G226">
         <v>2.4156250000000001E-2</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>32599</v>
       </c>
@@ -3422,8 +4098,11 @@
       <c r="G227">
         <v>1.590625E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>32629</v>
       </c>
@@ -3433,8 +4112,11 @@
       <c r="G228">
         <v>1.590625E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H228">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>32660</v>
       </c>
@@ -3444,8 +4126,11 @@
       <c r="G229">
         <v>1.590625E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>32690</v>
       </c>
@@ -3455,8 +4140,11 @@
       <c r="G230">
         <v>1.5039749999999999E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>32721</v>
       </c>
@@ -3466,8 +4154,11 @@
       <c r="G231">
         <v>1.5039749999999999E-2</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>32752</v>
       </c>
@@ -3477,8 +4168,11 @@
       <c r="G232">
         <v>1.5039749999999999E-2</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H232">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>32782</v>
       </c>
@@ -3488,8 +4182,11 @@
       <c r="G233">
         <v>1.6965000000000001E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H233">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>32813</v>
       </c>
@@ -3499,8 +4196,11 @@
       <c r="G234">
         <v>1.6965000000000001E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>32843</v>
       </c>
@@ -3510,8 +4210,11 @@
       <c r="G235">
         <v>1.6965000000000001E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H235">
+        <v>4.206334355478325E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>32874</v>
       </c>
@@ -3521,8 +4224,11 @@
       <c r="G236">
         <v>2.076675E-2</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H236">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>32905</v>
       </c>
@@ -3532,8 +4238,11 @@
       <c r="G237">
         <v>2.076675E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>32933</v>
       </c>
@@ -3543,8 +4252,11 @@
       <c r="G238">
         <v>2.076675E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H238">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>32964</v>
       </c>
@@ -3554,8 +4266,11 @@
       <c r="G239">
         <v>2.2463250000000001E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>32994</v>
       </c>
@@ -3565,8 +4280,11 @@
       <c r="G240">
         <v>2.2463250000000001E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>33025</v>
       </c>
@@ -3576,8 +4294,11 @@
       <c r="G241">
         <v>2.2463250000000001E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>33055</v>
       </c>
@@ -3587,8 +4308,11 @@
       <c r="G242">
         <v>9.4924999999999992E-3</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>33086</v>
       </c>
@@ -3598,8 +4322,11 @@
       <c r="G243">
         <v>9.4924999999999992E-3</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>33117</v>
       </c>
@@ -3609,8 +4336,11 @@
       <c r="G244">
         <v>9.4924999999999992E-3</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>33147</v>
       </c>
@@ -3620,8 +4350,11 @@
       <c r="G245">
         <v>-2.1025000000000002E-3</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>33178</v>
       </c>
@@ -3631,8 +4364,11 @@
       <c r="G246">
         <v>-2.1025000000000002E-3</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>33208</v>
       </c>
@@ -3642,8 +4378,11 @@
       <c r="G247">
         <v>-2.1025000000000002E-3</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <v>3.9416305983693611E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>33239</v>
       </c>
@@ -3653,8 +4392,11 @@
       <c r="G248">
         <v>7.2472500000000002E-3</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H248">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>33270</v>
       </c>
@@ -3664,8 +4406,11 @@
       <c r="G249">
         <v>7.2472500000000002E-3</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H249">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>33298</v>
       </c>
@@ -3675,8 +4420,11 @@
       <c r="G250">
         <v>7.2472500000000002E-3</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>33329</v>
       </c>
@@ -3686,8 +4434,11 @@
       <c r="G251">
         <v>1.8751500000000001E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H251">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>33359</v>
       </c>
@@ -3697,8 +4448,11 @@
       <c r="G252">
         <v>1.8751500000000001E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H252">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>33390</v>
       </c>
@@ -3708,8 +4462,11 @@
       <c r="G253">
         <v>1.8751500000000001E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>33420</v>
       </c>
@@ -3719,8 +4476,11 @@
       <c r="G254">
         <v>2.810375E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H254">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>33451</v>
       </c>
@@ -3730,8 +4490,11 @@
       <c r="G255">
         <v>2.810375E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H255">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>33482</v>
       </c>
@@ -3741,8 +4504,11 @@
       <c r="G256">
         <v>2.810375E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H256">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>33512</v>
       </c>
@@ -3752,8 +4518,11 @@
       <c r="G257">
         <v>2.5249250000000001E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H257">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>33543</v>
       </c>
@@ -3763,8 +4532,11 @@
       <c r="G258">
         <v>2.5249250000000001E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H258">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>33573</v>
       </c>
@@ -3774,8 +4546,11 @@
       <c r="G259">
         <v>2.5249250000000001E-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <v>9.3617021278484591E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>33604</v>
       </c>
@@ -3785,8 +4560,11 @@
       <c r="G260">
         <v>2.3006749999999999E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>33635</v>
       </c>
@@ -3796,8 +4574,11 @@
       <c r="G261">
         <v>2.3006749999999999E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>33664</v>
       </c>
@@ -3807,8 +4588,11 @@
       <c r="G262">
         <v>2.3006749999999999E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H262">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>33695</v>
       </c>
@@ -3818,8 +4602,11 @@
       <c r="G263">
         <v>3.0991500000000002E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H263">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>33725</v>
       </c>
@@ -3829,8 +4616,11 @@
       <c r="G264">
         <v>3.0991500000000002E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H264">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>33756</v>
       </c>
@@ -3840,8 +4630,11 @@
       <c r="G265">
         <v>3.0991500000000002E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H265">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>33786</v>
       </c>
@@ -3851,8 +4644,11 @@
       <c r="G266">
         <v>2.50155E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H266">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>33817</v>
       </c>
@@ -3862,8 +4658,11 @@
       <c r="G267">
         <v>2.50155E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H267">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>33848</v>
       </c>
@@ -3873,8 +4672,11 @@
       <c r="G268">
         <v>2.50155E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H268">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>33878</v>
       </c>
@@ -3884,8 +4686,11 @@
       <c r="G269">
         <v>2.60045E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H269">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>33909</v>
       </c>
@@ -3895,8 +4700,11 @@
       <c r="G270">
         <v>2.60045E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H270">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>33939</v>
       </c>
@@ -3906,8 +4714,11 @@
       <c r="G271">
         <v>2.60045E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H271">
+        <v>0.14299610894792614</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>33970</v>
       </c>
@@ -3917,8 +4728,11 @@
       <c r="G272">
         <v>3.1607499999999997E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H272">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>34001</v>
       </c>
@@ -3928,8 +4742,11 @@
       <c r="G273">
         <v>3.1607499999999997E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H273">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>34029</v>
       </c>
@@ -3939,8 +4756,11 @@
       <c r="G274">
         <v>3.1607499999999997E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H274">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>34060</v>
       </c>
@@ -3950,8 +4770,11 @@
       <c r="G275">
         <v>3.0942250000000001E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H275">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>34090</v>
       </c>
@@ -3961,8 +4784,11 @@
       <c r="G276">
         <v>3.0942250000000001E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H276">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>34121</v>
       </c>
@@ -3972,8 +4798,11 @@
       <c r="G277">
         <v>3.0942250000000001E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H277">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>34151</v>
       </c>
@@ -3983,8 +4812,11 @@
       <c r="G278">
         <v>2.9749999999999999E-2</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H278">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>34182</v>
       </c>
@@ -3994,8 +4826,11 @@
       <c r="G279">
         <v>2.9749999999999999E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H279">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>34213</v>
       </c>
@@ -4005,8 +4840,11 @@
       <c r="G280">
         <v>2.9749999999999999E-2</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H280">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>34243</v>
       </c>
@@ -4016,8 +4854,11 @@
       <c r="G281">
         <v>2.9618999999999999E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H281">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>34274</v>
       </c>
@@ -4027,8 +4868,11 @@
       <c r="G282">
         <v>2.9618999999999999E-2</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H282">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>34304</v>
       </c>
@@ -4038,8 +4882,11 @@
       <c r="G283">
         <v>2.9618999999999999E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H283">
+        <v>0.13929078014368867</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>34335</v>
       </c>
@@ -4049,8 +4896,11 @@
       <c r="G284">
         <v>3.0460750000000002E-2</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H284">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>34366</v>
       </c>
@@ -4060,8 +4910,11 @@
       <c r="G285">
         <v>3.0460750000000002E-2</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H285">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>34394</v>
       </c>
@@ -4071,8 +4924,11 @@
       <c r="G286">
         <v>3.0460750000000002E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H286">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>34425</v>
       </c>
@@ -4082,8 +4938,11 @@
       <c r="G287">
         <v>3.031E-2</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H287">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>34455</v>
       </c>
@@ -4093,8 +4952,11 @@
       <c r="G288">
         <v>3.031E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H288">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>34486</v>
       </c>
@@ -4104,8 +4966,11 @@
       <c r="G289">
         <v>3.031E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H289">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>34516</v>
       </c>
@@ -4115,8 +4980,11 @@
       <c r="G290">
         <v>2.4872499999999999E-2</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H290">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>34547</v>
       </c>
@@ -4126,8 +4994,11 @@
       <c r="G291">
         <v>2.4872499999999999E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H291">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>34578</v>
       </c>
@@ -4137,8 +5008,11 @@
       <c r="G292">
         <v>2.4872499999999999E-2</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H292">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>34608</v>
       </c>
@@ -4148,8 +5022,11 @@
       <c r="G293">
         <v>2.7192000000000001E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H293">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>34639</v>
       </c>
@@ -4159,8 +5036,11 @@
       <c r="G294">
         <v>2.7192000000000001E-2</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H294">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>34669</v>
       </c>
@@ -4170,8 +5050,11 @@
       <c r="G295">
         <v>2.7192000000000001E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H295">
+        <v>0.13072709163159968</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>34700</v>
       </c>
@@ -4184,8 +5067,11 @@
       <c r="G296">
         <v>2.5048500000000001E-2</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H296">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>34731</v>
       </c>
@@ -4198,8 +5084,11 @@
       <c r="G297">
         <v>2.5048500000000001E-2</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H297">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>34759</v>
       </c>
@@ -4212,8 +5101,11 @@
       <c r="G298">
         <v>2.5048500000000001E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H298">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>34790</v>
       </c>
@@ -4226,8 +5118,11 @@
       <c r="G299">
         <v>2.3922499999999999E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H299">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>34820</v>
       </c>
@@ -4240,8 +5135,11 @@
       <c r="G300">
         <v>2.3922499999999999E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H300">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>34851</v>
       </c>
@@ -4254,8 +5152,11 @@
       <c r="G301">
         <v>2.3922499999999999E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H301">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>34881</v>
       </c>
@@ -4268,8 +5169,11 @@
       <c r="G302">
         <v>2.5715999999999999E-2</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H302">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>34912</v>
       </c>
@@ -4282,8 +5186,11 @@
       <c r="G303">
         <v>2.5715999999999999E-2</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H303">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>34943</v>
       </c>
@@ -4296,8 +5203,11 @@
       <c r="G304">
         <v>2.5715999999999999E-2</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H304">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>34973</v>
       </c>
@@ -4310,8 +5220,11 @@
       <c r="G305">
         <v>2.4907749999999999E-2</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H305">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>35004</v>
       </c>
@@ -4324,8 +5237,11 @@
       <c r="G306">
         <v>2.4907749999999999E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H306">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>35034</v>
       </c>
@@ -4338,8 +5254,11 @@
       <c r="G307">
         <v>2.4907749999999999E-2</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H307">
+        <v>0.11032812156274652</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>35065</v>
       </c>
@@ -4355,8 +5274,11 @@
       <c r="G308">
         <v>2.0307749999999999E-2</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H308">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>35096</v>
       </c>
@@ -4372,8 +5294,11 @@
       <c r="G309">
         <v>2.0307749999999999E-2</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H309">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>35125</v>
       </c>
@@ -4389,8 +5314,11 @@
       <c r="G310">
         <v>2.0307749999999999E-2</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H310">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>35156</v>
       </c>
@@ -4409,8 +5337,11 @@
       <c r="G311">
         <v>2.3045E-2</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H311">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>35186</v>
       </c>
@@ -4429,8 +5360,11 @@
       <c r="G312">
         <v>2.3045E-2</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H312">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>35217</v>
       </c>
@@ -4449,8 +5383,11 @@
       <c r="G313">
         <v>2.3045E-2</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H313">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>35247</v>
       </c>
@@ -4469,8 +5406,11 @@
       <c r="G314">
         <v>2.2210500000000001E-2</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H314">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>35278</v>
       </c>
@@ -4489,8 +5429,11 @@
       <c r="G315">
         <v>2.2210500000000001E-2</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H315">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>35309</v>
       </c>
@@ -4509,8 +5452,11 @@
       <c r="G316">
         <v>2.2210500000000001E-2</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H316">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>35339</v>
       </c>
@@ -4529,8 +5475,11 @@
       <c r="G317">
         <v>2.156075E-2</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H317">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>35370</v>
       </c>
@@ -4549,8 +5498,11 @@
       <c r="G318">
         <v>2.156075E-2</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H318">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>35400</v>
       </c>
@@ -4569,8 +5521,11 @@
       <c r="G319">
         <v>2.156075E-2</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H319">
+        <v>9.9761999205344454E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>35431</v>
       </c>
@@ -4589,8 +5544,11 @@
       <c r="G320">
         <v>2.2508500000000001E-2</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H320">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>35462</v>
       </c>
@@ -4609,8 +5567,11 @@
       <c r="G321">
         <v>2.2508500000000001E-2</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H321">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>35490</v>
       </c>
@@ -4629,8 +5590,11 @@
       <c r="G322">
         <v>2.2508500000000001E-2</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H322">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>35521</v>
       </c>
@@ -4649,8 +5613,11 @@
       <c r="G323">
         <v>2.3543250000000002E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H323">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>35551</v>
       </c>
@@ -4669,8 +5636,11 @@
       <c r="G324">
         <v>2.3543250000000002E-2</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H324">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>35582</v>
       </c>
@@ -4689,8 +5659,11 @@
       <c r="G325">
         <v>2.3543250000000002E-2</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H325">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>35612</v>
       </c>
@@ -4709,8 +5682,11 @@
       <c r="G326">
         <v>2.5759000000000001E-2</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H326">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>35643</v>
       </c>
@@ -4729,8 +5705,11 @@
       <c r="G327">
         <v>2.5759000000000001E-2</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H327">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>35674</v>
       </c>
@@ -4749,8 +5728,11 @@
       <c r="G328">
         <v>2.5759000000000001E-2</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H328">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>35704</v>
       </c>
@@ -4769,8 +5751,11 @@
       <c r="G329">
         <v>2.4698000000000001E-2</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H329">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>35735</v>
       </c>
@@ -4789,8 +5774,11 @@
       <c r="G330">
         <v>2.4698000000000001E-2</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H330">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>35765</v>
       </c>
@@ -4809,8 +5797,11 @@
       <c r="G331">
         <v>2.4698000000000001E-2</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H331">
+        <v>9.2876465280864906E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>35796</v>
       </c>
@@ -4829,8 +5820,11 @@
       <c r="G332">
         <v>2.2259250000000001E-2</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H332">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>35827</v>
       </c>
@@ -4849,8 +5843,11 @@
       <c r="G333">
         <v>2.2259250000000001E-2</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H333">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>35855</v>
       </c>
@@ -4869,8 +5866,11 @@
       <c r="G334">
         <v>2.2259250000000001E-2</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H334">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>35886</v>
       </c>
@@ -4892,8 +5892,11 @@
       <c r="G335">
         <v>2.285825E-2</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H335">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>35916</v>
       </c>
@@ -4915,8 +5918,11 @@
       <c r="G336">
         <v>2.285825E-2</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H336">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>35947</v>
       </c>
@@ -4938,8 +5944,11 @@
       <c r="G337">
         <v>2.285825E-2</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H337">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>35977</v>
       </c>
@@ -4961,8 +5970,11 @@
       <c r="G338">
         <v>2.37495E-2</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H338">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>36008</v>
       </c>
@@ -4984,8 +5996,11 @@
       <c r="G339">
         <v>2.37495E-2</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H339">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>36039</v>
       </c>
@@ -5007,8 +6022,11 @@
       <c r="G340">
         <v>2.37495E-2</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H340">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>36069</v>
       </c>
@@ -5030,8 +6048,11 @@
       <c r="G341">
         <v>1.9675749999999999E-2</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H341">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>36100</v>
       </c>
@@ -5053,8 +6074,11 @@
       <c r="G342">
         <v>1.9675749999999999E-2</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H342">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>36130</v>
       </c>
@@ -5076,8 +6100,11 @@
       <c r="G343">
         <v>1.9675749999999999E-2</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H343">
+        <v>7.9207920793354925E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>36161</v>
       </c>
@@ -5099,8 +6126,11 @@
       <c r="G344">
         <v>2.5001499999999999E-2</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H344">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>36192</v>
       </c>
@@ -5122,8 +6152,11 @@
       <c r="G345">
         <v>2.5001499999999999E-2</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H345">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>36220</v>
       </c>
@@ -5145,8 +6178,11 @@
       <c r="G346">
         <v>2.5001499999999999E-2</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H346">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>36251</v>
       </c>
@@ -5168,8 +6204,11 @@
       <c r="G347">
         <v>2.6241250000000001E-2</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H347">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>36281</v>
       </c>
@@ -5191,8 +6230,11 @@
       <c r="G348">
         <v>2.6241250000000001E-2</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H348">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>36312</v>
       </c>
@@ -5214,8 +6256,11 @@
       <c r="G349">
         <v>2.6241250000000001E-2</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H349">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>36342</v>
       </c>
@@ -5237,8 +6282,11 @@
       <c r="G350">
         <v>2.7511250000000001E-2</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H350">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>36373</v>
       </c>
@@ -5260,8 +6308,11 @@
       <c r="G351">
         <v>2.7511250000000001E-2</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H351">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>36404</v>
       </c>
@@ -5283,8 +6334,11 @@
       <c r="G352">
         <v>2.7511250000000001E-2</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H352">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>36434</v>
       </c>
@@ -5306,8 +6360,11 @@
       <c r="G353">
         <v>2.9993249999999999E-2</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H353">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>36465</v>
       </c>
@@ -5329,8 +6386,11 @@
       <c r="G354">
         <v>2.9993249999999999E-2</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H354">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>36495</v>
       </c>
@@ -5352,8 +6412,11 @@
       <c r="G355">
         <v>2.9993249999999999E-2</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H355">
+        <v>7.7370030581298987E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>36526</v>
       </c>
@@ -5375,8 +6438,11 @@
       <c r="G356">
         <v>3.1091500000000001E-2</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H356">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>36557</v>
       </c>
@@ -5398,8 +6464,11 @@
       <c r="G357">
         <v>3.1091500000000001E-2</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H357">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>36586</v>
       </c>
@@ -5421,8 +6490,11 @@
       <c r="G358">
         <v>3.1091500000000001E-2</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H358">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>36617</v>
       </c>
@@ -5444,8 +6516,11 @@
       <c r="G359">
         <v>3.37065E-2</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H359">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>36647</v>
       </c>
@@ -5467,8 +6542,11 @@
       <c r="G360">
         <v>3.37065E-2</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H360">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>36678</v>
       </c>
@@ -5490,8 +6568,11 @@
       <c r="G361">
         <v>3.37065E-2</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H361">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>36708</v>
       </c>
@@ -5513,8 +6594,11 @@
       <c r="G362">
         <v>3.0748500000000002E-2</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H362">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>36739</v>
       </c>
@@ -5536,8 +6620,11 @@
       <c r="G363">
         <v>3.0748500000000002E-2</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H363">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>36770</v>
       </c>
@@ -5559,8 +6646,11 @@
       <c r="G364">
         <v>3.0748500000000002E-2</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H364">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>36800</v>
       </c>
@@ -5582,8 +6672,11 @@
       <c r="G365">
         <v>3.2736250000000001E-2</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H365">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>36831</v>
       </c>
@@ -5605,8 +6698,11 @@
       <c r="G366">
         <v>3.2736250000000001E-2</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H366">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>36861</v>
       </c>
@@ -5628,8 +6724,11 @@
       <c r="G367">
         <v>3.2736250000000001E-2</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H367">
+        <v>8.5864320180846221E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>36892</v>
       </c>
@@ -5651,8 +6750,11 @@
       <c r="G368">
         <v>2.50025E-2</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H368">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>36923</v>
       </c>
@@ -5674,8 +6776,11 @@
       <c r="G369">
         <v>2.50025E-2</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H369">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>36951</v>
       </c>
@@ -5697,8 +6802,11 @@
       <c r="G370">
         <v>2.50025E-2</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H370">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>36982</v>
       </c>
@@ -5720,8 +6828,11 @@
       <c r="G371">
         <v>2.2280500000000002E-2</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H371">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>37012</v>
       </c>
@@ -5743,8 +6854,11 @@
       <c r="G372">
         <v>2.2280500000000002E-2</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H372">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>37043</v>
       </c>
@@ -5766,8 +6880,11 @@
       <c r="G373">
         <v>2.2280500000000002E-2</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H373">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>37073</v>
       </c>
@@ -5789,8 +6906,11 @@
       <c r="G374">
         <v>2.4233749999999998E-2</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H374">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>37104</v>
       </c>
@@ -5812,8 +6932,11 @@
       <c r="G375">
         <v>2.4233749999999998E-2</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H375">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>37135</v>
       </c>
@@ -5835,8 +6958,11 @@
       <c r="G376">
         <v>2.4233749999999998E-2</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H376">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>37165</v>
       </c>
@@ -5858,8 +6984,11 @@
       <c r="G377">
         <v>1.0376750000000001E-2</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H377">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>37196</v>
       </c>
@@ -5881,8 +7010,11 @@
       <c r="G378">
         <v>1.0376750000000001E-2</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H378">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>37226</v>
       </c>
@@ -5904,8 +7036,11 @@
       <c r="G379">
         <v>1.0376750000000001E-2</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H379">
+        <v>8.3126388709152454E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>37257</v>
       </c>
@@ -5927,8 +7062,11 @@
       <c r="G380">
         <v>2.8014750000000001E-2</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H380">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>37288</v>
       </c>
@@ -5950,8 +7088,11 @@
       <c r="G381">
         <v>2.8014750000000001E-2</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H381">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>37316</v>
       </c>
@@ -5973,8 +7114,11 @@
       <c r="G382">
         <v>2.8014750000000001E-2</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H382">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>37347</v>
       </c>
@@ -5996,8 +7140,11 @@
       <c r="G383">
         <v>3.1614250000000003E-2</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H383">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>37377</v>
       </c>
@@ -6019,8 +7166,11 @@
       <c r="G384">
         <v>3.1614250000000003E-2</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H384">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>37408</v>
       </c>
@@ -6042,8 +7192,11 @@
       <c r="G385">
         <v>3.1614250000000003E-2</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H385">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>37438</v>
       </c>
@@ -6065,8 +7218,11 @@
       <c r="G386">
         <v>2.881075E-2</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H386">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>37469</v>
       </c>
@@ -6088,8 +7244,11 @@
       <c r="G387">
         <v>2.881075E-2</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H387">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>37500</v>
       </c>
@@ -6111,8 +7270,11 @@
       <c r="G388">
         <v>2.881075E-2</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H388">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>37530</v>
       </c>
@@ -6134,8 +7296,11 @@
       <c r="G389">
         <v>2.556025E-2</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H389">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>37561</v>
       </c>
@@ -6157,8 +7322,11 @@
       <c r="G390">
         <v>2.556025E-2</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H390">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>37591</v>
       </c>
@@ -6180,8 +7348,11 @@
       <c r="G391">
         <v>2.556025E-2</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H391">
+        <v>9.243393266383193E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>37622</v>
       </c>
@@ -6203,8 +7374,11 @@
       <c r="G392">
         <v>2.9748500000000001E-2</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H392">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>37653</v>
       </c>
@@ -6226,8 +7400,11 @@
       <c r="G393">
         <v>2.9748500000000001E-2</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H393">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>37681</v>
       </c>
@@ -6249,8 +7426,11 @@
       <c r="G394">
         <v>2.9748500000000001E-2</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H394">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>37712</v>
       </c>
@@ -6272,8 +7452,11 @@
       <c r="G395">
         <v>3.1338999999999999E-2</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H395">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>37742</v>
       </c>
@@ -6295,8 +7478,11 @@
       <c r="G396">
         <v>3.1338999999999999E-2</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H396">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>37773</v>
       </c>
@@ -6318,8 +7504,11 @@
       <c r="G397">
         <v>3.1338999999999999E-2</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H397">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>37803</v>
       </c>
@@ -6341,8 +7530,11 @@
       <c r="G398">
         <v>3.7745250000000001E-2</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H398">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>37834</v>
       </c>
@@ -6364,8 +7556,11 @@
       <c r="G399">
         <v>3.7745250000000001E-2</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H399">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>37865</v>
       </c>
@@ -6387,8 +7582,11 @@
       <c r="G400">
         <v>3.7745250000000001E-2</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H400">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>37895</v>
       </c>
@@ -6410,8 +7608,11 @@
       <c r="G401">
         <v>3.8746500000000003E-2</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H401">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>37926</v>
       </c>
@@ -6433,8 +7634,11 @@
       <c r="G402">
         <v>3.8746500000000003E-2</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H402">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>37956</v>
       </c>
@@ -6456,8 +7660,11 @@
       <c r="G403">
         <v>3.8746500000000003E-2</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H403">
+        <v>0.10118192864011744</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>37987</v>
       </c>
@@ -6479,8 +7686,11 @@
       <c r="G404">
         <v>4.1864749999999999E-2</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H404">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>38018</v>
       </c>
@@ -6502,8 +7712,11 @@
       <c r="G405">
         <v>4.1864749999999999E-2</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H405">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>38047</v>
       </c>
@@ -6525,8 +7738,11 @@
       <c r="G406">
         <v>4.1864749999999999E-2</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H406">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>38078</v>
       </c>
@@ -6548,8 +7764,11 @@
       <c r="G407">
         <v>4.1098000000000003E-2</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H407">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>38108</v>
       </c>
@@ -6571,8 +7790,11 @@
       <c r="G408">
         <v>4.1098000000000003E-2</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H408">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>38139</v>
       </c>
@@ -6594,8 +7816,11 @@
       <c r="G409">
         <v>4.1098000000000003E-2</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H409">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>38169</v>
       </c>
@@ -6617,8 +7842,11 @@
       <c r="G410">
         <v>3.7393750000000003E-2</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H410">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>38200</v>
       </c>
@@ -6640,8 +7868,11 @@
       <c r="G411">
         <v>3.7393750000000003E-2</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H411">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>38231</v>
       </c>
@@ -6663,8 +7894,11 @@
       <c r="G412">
         <v>3.7393750000000003E-2</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H412">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>38261</v>
       </c>
@@ -6686,8 +7920,11 @@
       <c r="G413">
         <v>3.4824500000000001E-2</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H413">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>38292</v>
       </c>
@@ -6709,8 +7946,11 @@
       <c r="G414">
         <v>3.4824500000000001E-2</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H414">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>38322</v>
       </c>
@@ -6732,8 +7972,11 @@
       <c r="G415">
         <v>3.4824500000000001E-2</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H415">
+        <v>0.10131407363100275</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>38353</v>
       </c>
@@ -6755,8 +7998,11 @@
       <c r="G416">
         <v>3.5215499999999997E-2</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H416">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>38384</v>
       </c>
@@ -6778,8 +8024,11 @@
       <c r="G417">
         <v>3.5215499999999997E-2</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H417">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>38412</v>
       </c>
@@ -6801,8 +8050,11 @@
       <c r="G418">
         <v>3.5215499999999997E-2</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H418">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>38443</v>
       </c>
@@ -6824,8 +8076,11 @@
       <c r="G419">
         <v>3.2918500000000003E-2</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H419">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>38473</v>
       </c>
@@ -6847,8 +8102,11 @@
       <c r="G420">
         <v>3.2918500000000003E-2</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H420">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>38504</v>
       </c>
@@ -6870,8 +8128,11 @@
       <c r="G421">
         <v>3.2918500000000003E-2</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H421">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>38534</v>
       </c>
@@ -6893,8 +8154,11 @@
       <c r="G422">
         <v>3.6034249999999997E-2</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H422">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>38565</v>
       </c>
@@ -6916,8 +8180,11 @@
       <c r="G423">
         <v>3.6034249999999997E-2</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H423">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>38596</v>
       </c>
@@ -6939,8 +8206,11 @@
       <c r="G424">
         <v>3.6034249999999997E-2</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H424">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>38626</v>
       </c>
@@ -6962,8 +8232,11 @@
       <c r="G425">
         <v>3.3498E-2</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H425">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>38657</v>
       </c>
@@ -6985,8 +8258,11 @@
       <c r="G426">
         <v>3.3498E-2</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H426">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>38687</v>
       </c>
@@ -7008,8 +8284,11 @@
       <c r="G427">
         <v>3.3498E-2</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H427">
+        <v>0.11458238455066994</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>38718</v>
       </c>
@@ -7031,8 +8310,11 @@
       <c r="G428">
         <v>3.498275E-2</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H428">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>38749</v>
       </c>
@@ -7054,8 +8336,11 @@
       <c r="G429">
         <v>3.498275E-2</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H429">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>38777</v>
       </c>
@@ -7077,8 +8362,11 @@
       <c r="G430">
         <v>3.498275E-2</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H430">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>38808</v>
       </c>
@@ -7100,8 +8388,11 @@
       <c r="G431">
         <v>3.0967749999999999E-2</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H431">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>38838</v>
       </c>
@@ -7123,8 +8414,11 @@
       <c r="G432">
         <v>3.0967749999999999E-2</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H432">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>38869</v>
       </c>
@@ -7146,8 +8440,11 @@
       <c r="G433">
         <v>3.0967749999999999E-2</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H433">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>38899</v>
       </c>
@@ -7169,8 +8466,11 @@
       <c r="G434">
         <v>2.799625E-2</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H434">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>38930</v>
       </c>
@@ -7192,8 +8492,11 @@
       <c r="G435">
         <v>2.799625E-2</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H435">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>38961</v>
       </c>
@@ -7215,8 +8518,11 @@
       <c r="G436">
         <v>2.799625E-2</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H436">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>38991</v>
       </c>
@@ -7238,8 +8544,11 @@
       <c r="G437">
         <v>2.7501000000000001E-2</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H437">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>39022</v>
       </c>
@@ -7261,8 +8570,11 @@
       <c r="G438">
         <v>2.7501000000000001E-2</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H438">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>39052</v>
       </c>
@@ -7284,8 +8596,11 @@
       <c r="G439">
         <v>2.7501000000000001E-2</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H439">
+        <v>0.12674675165523519</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>39083</v>
       </c>
@@ -7307,8 +8622,11 @@
       <c r="G440">
         <v>2.86935E-2</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H440">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>39114</v>
       </c>
@@ -7330,8 +8648,11 @@
       <c r="G441">
         <v>2.86935E-2</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H441">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>39142</v>
       </c>
@@ -7353,8 +8674,11 @@
       <c r="G442">
         <v>2.86935E-2</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H442">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>39173</v>
       </c>
@@ -7376,8 +8700,11 @@
       <c r="G443">
         <v>2.6942750000000001E-2</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H443">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>39203</v>
       </c>
@@ -7399,8 +8726,11 @@
       <c r="G444">
         <v>2.6942750000000001E-2</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H444">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>39234</v>
       </c>
@@ -7422,8 +8752,11 @@
       <c r="G445">
         <v>2.6942750000000001E-2</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H445">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>39264</v>
       </c>
@@ -7445,8 +8778,11 @@
       <c r="G446">
         <v>2.6908000000000001E-2</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H446">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>39295</v>
       </c>
@@ -7468,8 +8804,11 @@
       <c r="G447">
         <v>2.6908000000000001E-2</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H447">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>39326</v>
       </c>
@@ -7491,8 +8830,11 @@
       <c r="G448">
         <v>2.6908000000000001E-2</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H448">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>39356</v>
       </c>
@@ -7514,8 +8856,11 @@
       <c r="G449">
         <v>2.1786750000000001E-2</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H449">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>39387</v>
       </c>
@@ -7537,8 +8882,11 @@
       <c r="G450">
         <v>2.1786750000000001E-2</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H450">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>39417</v>
       </c>
@@ -7560,8 +8908,11 @@
       <c r="G451">
         <v>2.1786750000000001E-2</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H451">
+        <v>0.14149985494712736</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>39448</v>
       </c>
@@ -7583,8 +8934,11 @@
       <c r="G452">
         <v>1.8942750000000001E-2</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H452">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>39479</v>
       </c>
@@ -7606,8 +8960,11 @@
       <c r="G453">
         <v>1.8942750000000001E-2</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H453">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>39508</v>
       </c>
@@ -7629,8 +8986,11 @@
       <c r="G454">
         <v>1.8942750000000001E-2</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H454">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>39539</v>
       </c>
@@ -7652,8 +9012,11 @@
       <c r="G455">
         <v>1.5032500000000001E-2</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H455">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>39569</v>
       </c>
@@ -7675,8 +9038,11 @@
       <c r="G456">
         <v>1.5032500000000001E-2</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H456">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>39600</v>
       </c>
@@ -7698,8 +9064,11 @@
       <c r="G457">
         <v>1.5032500000000001E-2</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H457">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>39630</v>
       </c>
@@ -7721,8 +9090,11 @@
       <c r="G458">
         <v>1.3875500000000001E-2</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H458">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>39661</v>
       </c>
@@ -7744,8 +9116,11 @@
       <c r="G459">
         <v>1.3875500000000001E-2</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H459">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>39692</v>
       </c>
@@ -7767,8 +9142,11 @@
       <c r="G460">
         <v>1.3875500000000001E-2</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H460">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>39722</v>
       </c>
@@ -7790,8 +9168,11 @@
       <c r="G461">
         <v>-5.8312499999999996E-3</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H461">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>39753</v>
       </c>
@@ -7813,8 +9194,11 @@
       <c r="G462">
         <v>-5.8312499999999996E-3</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H462">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>39783</v>
       </c>
@@ -7836,8 +9220,11 @@
       <c r="G463">
         <v>-5.8312499999999996E-3</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H463">
+        <v>9.6702458860285168E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>39814</v>
       </c>
@@ -7859,8 +9246,11 @@
       <c r="G464">
         <v>-1.048225E-2</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H464">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>39845</v>
       </c>
@@ -7882,8 +9272,11 @@
       <c r="G465">
         <v>-1.048225E-2</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H465">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>39873</v>
       </c>
@@ -7905,8 +9298,11 @@
       <c r="G466">
         <v>-1.048225E-2</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H466">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>39904</v>
       </c>
@@ -7928,8 +9324,11 @@
       <c r="G467">
         <v>7.1805000000000003E-3</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H467">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>39934</v>
       </c>
@@ -7951,8 +9350,11 @@
       <c r="G468">
         <v>7.1805000000000003E-3</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H468">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>39965</v>
       </c>
@@ -7974,8 +9376,11 @@
       <c r="G469">
         <v>7.1805000000000003E-3</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H469">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>39995</v>
       </c>
@@ -7997,8 +9402,11 @@
       <c r="G470">
         <v>2.4872749999999999E-2</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H470">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>40026</v>
       </c>
@@ -8020,8 +9428,11 @@
       <c r="G471">
         <v>2.4872749999999999E-2</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H471">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>40057</v>
       </c>
@@ -8043,8 +9454,11 @@
       <c r="G472">
         <v>2.4872749999999999E-2</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H472">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>40087</v>
       </c>
@@ -8066,8 +9480,11 @@
       <c r="G473">
         <v>2.4999E-2</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H473">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>40118</v>
       </c>
@@ -8089,8 +9506,11 @@
       <c r="G474">
         <v>2.4999E-2</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H474">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>40148</v>
       </c>
@@ -8112,8 +9532,11 @@
       <c r="G475">
         <v>2.4999E-2</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H475">
+        <v>9.4026997277804503E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>40179</v>
       </c>
@@ -8135,8 +9558,11 @@
       <c r="G476">
         <v>2.7165499999999999E-2</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H476">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>40210</v>
       </c>
@@ -8158,8 +9584,11 @@
       <c r="G477">
         <v>2.7165499999999999E-2</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H477">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>40238</v>
       </c>
@@ -8181,8 +9610,11 @@
       <c r="G478">
         <v>2.7165499999999999E-2</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H478">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>40269</v>
       </c>
@@ -8204,8 +9636,11 @@
       <c r="G479">
         <v>3.036225E-2</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H479">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>40299</v>
       </c>
@@ -8227,8 +9662,11 @@
       <c r="G480">
         <v>3.036225E-2</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H480">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>40330</v>
       </c>
@@ -8250,8 +9688,11 @@
       <c r="G481">
         <v>3.036225E-2</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H481">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>40360</v>
       </c>
@@ -8273,8 +9714,11 @@
       <c r="G482">
         <v>2.6321000000000001E-2</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H482">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>40391</v>
       </c>
@@ -8296,8 +9740,11 @@
       <c r="G483">
         <v>2.6321000000000001E-2</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H483">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>40422</v>
       </c>
@@ -8319,8 +9766,11 @@
       <c r="G484">
         <v>2.6321000000000001E-2</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H484">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>40452</v>
       </c>
@@ -8342,8 +9792,11 @@
       <c r="G485">
         <v>2.6505500000000001E-2</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H485">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>40483</v>
       </c>
@@ -8365,8 +9818,11 @@
       <c r="G486">
         <v>2.6505500000000001E-2</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H486">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>40513</v>
       </c>
@@ -8388,8 +9844,11 @@
       <c r="G487">
         <v>2.6505500000000001E-2</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H487">
+        <v>0.10596271976168148</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>40544</v>
       </c>
@@ -8411,8 +9870,11 @@
       <c r="G488">
         <v>3.3806999999999997E-2</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H488">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>40575</v>
       </c>
@@ -8434,8 +9896,11 @@
       <c r="G489">
         <v>3.3806999999999997E-2</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H489">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>40603</v>
       </c>
@@ -8457,8 +9922,11 @@
       <c r="G490">
         <v>3.3806999999999997E-2</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H490">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>40634</v>
       </c>
@@ -8480,8 +9948,11 @@
       <c r="G491">
         <v>3.2592500000000003E-2</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H491">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>40664</v>
       </c>
@@ -8503,8 +9974,11 @@
       <c r="G492">
         <v>3.2592500000000003E-2</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H492">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>40695</v>
       </c>
@@ -8526,8 +10000,11 @@
       <c r="G493">
         <v>3.2592500000000003E-2</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H493">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>40725</v>
       </c>
@@ -8549,8 +10026,11 @@
       <c r="G494">
         <v>2.4747000000000002E-2</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H494">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>40756</v>
       </c>
@@ -8572,8 +10052,11 @@
       <c r="G495">
         <v>2.4747000000000002E-2</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H495">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>40787</v>
       </c>
@@ -8595,8 +10078,11 @@
       <c r="G496">
         <v>2.4747000000000002E-2</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H496">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>40817</v>
       </c>
@@ -8618,8 +10104,11 @@
       <c r="G497">
         <v>2.5434749999999999E-2</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H497">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>40848</v>
       </c>
@@ -8641,8 +10130,11 @@
       <c r="G498">
         <v>2.5434749999999999E-2</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H498">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>40878</v>
       </c>
@@ -8664,8 +10156,11 @@
       <c r="G499">
         <v>2.5434749999999999E-2</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H499">
+        <v>9.4613358870736075E-2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>40909</v>
       </c>
@@ -8687,8 +10182,11 @@
       <c r="G500">
         <v>2.5284000000000001E-2</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H500">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>40940</v>
       </c>
@@ -8710,8 +10208,11 @@
       <c r="G501">
         <v>2.5284000000000001E-2</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H501">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>40969</v>
       </c>
@@ -8733,8 +10234,11 @@
       <c r="G502">
         <v>2.5284000000000001E-2</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H502">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>41000</v>
       </c>
@@ -8756,8 +10260,11 @@
       <c r="G503">
         <v>2.5249250000000001E-2</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H503">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>41030</v>
       </c>
@@ -8779,8 +10286,11 @@
       <c r="G504">
         <v>2.5249250000000001E-2</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H504">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>41061</v>
       </c>
@@ -8802,8 +10312,11 @@
       <c r="G505">
         <v>2.5249250000000001E-2</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H505">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>41091</v>
       </c>
@@ -8825,8 +10338,11 @@
       <c r="G506">
         <v>1.9914749999999998E-2</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H506">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>41122</v>
       </c>
@@ -8848,8 +10364,11 @@
       <c r="G507">
         <v>1.9914749999999998E-2</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H507">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>41153</v>
       </c>
@@ -8871,8 +10390,11 @@
       <c r="G508">
         <v>1.9914749999999998E-2</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H508">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>41183</v>
       </c>
@@ -8894,8 +10416,11 @@
       <c r="G509">
         <v>2.0570999999999999E-2</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H509">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>41214</v>
       </c>
@@ -8917,8 +10442,11 @@
       <c r="G510">
         <v>2.0570999999999999E-2</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H510">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>41244</v>
       </c>
@@ -8940,8 +10468,11 @@
       <c r="G511">
         <v>2.0570999999999999E-2</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H511">
+        <v>7.8561742705558713E-2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>41275</v>
       </c>
@@ -8963,8 +10494,11 @@
       <c r="G512">
         <v>2.3814749999999999E-2</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H512">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>41306</v>
       </c>
@@ -8986,8 +10520,11 @@
       <c r="G513">
         <v>2.3814749999999999E-2</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H513">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>41334</v>
       </c>
@@ -9009,8 +10546,11 @@
       <c r="G514">
         <v>2.3814749999999999E-2</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H514">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>41365</v>
       </c>
@@ -9032,8 +10572,11 @@
       <c r="G515">
         <v>2.3297249999999999E-2</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H515">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>41395</v>
       </c>
@@ -9055,8 +10598,11 @@
       <c r="G516">
         <v>2.3297249999999999E-2</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H516">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>41426</v>
       </c>
@@ -9078,8 +10624,11 @@
       <c r="G517">
         <v>2.3297249999999999E-2</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H517">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>41456</v>
       </c>
@@ -9101,8 +10650,11 @@
       <c r="G518">
         <v>2.5236499999999999E-2</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H518">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>41487</v>
       </c>
@@ -9124,8 +10676,11 @@
       <c r="G519">
         <v>2.5236499999999999E-2</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H519">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>41518</v>
       </c>
@@ -9147,8 +10702,11 @@
       <c r="G520">
         <v>2.5236499999999999E-2</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H520">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>41548</v>
       </c>
@@ -9170,8 +10728,11 @@
       <c r="G521">
         <v>2.5277999999999998E-2</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H521">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>41579</v>
       </c>
@@ -9193,8 +10754,11 @@
       <c r="G522">
         <v>2.5277999999999998E-2</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H522">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>41609</v>
       </c>
@@ -9216,8 +10780,11 @@
       <c r="G523">
         <v>2.5277999999999998E-2</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H523">
+        <v>7.7787240944671598E-2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>41640</v>
       </c>
@@ -9239,8 +10806,11 @@
       <c r="G524">
         <v>2.63135E-2</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H524">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>41671</v>
       </c>
@@ -9262,8 +10832,11 @@
       <c r="G525">
         <v>2.63135E-2</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H525">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>41699</v>
       </c>
@@ -9285,8 +10858,11 @@
       <c r="G526">
         <v>2.63135E-2</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H526">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>41730</v>
       </c>
@@ -9308,8 +10884,11 @@
       <c r="G527">
         <v>3.1390500000000002E-2</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H527">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>41760</v>
       </c>
@@ -9331,8 +10910,11 @@
       <c r="G528">
         <v>3.1390500000000002E-2</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H528">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>41791</v>
       </c>
@@ -9354,8 +10936,11 @@
       <c r="G529">
         <v>3.1390500000000002E-2</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H529">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>41821</v>
       </c>
@@ -9377,8 +10962,11 @@
       <c r="G530">
         <v>3.0748999999999999E-2</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H530">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>41852</v>
       </c>
@@ -9400,8 +10988,11 @@
       <c r="G531">
         <v>3.0748999999999999E-2</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H531">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>41883</v>
       </c>
@@ -9423,8 +11014,11 @@
       <c r="G532">
         <v>3.0748999999999999E-2</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H532">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>41913</v>
       </c>
@@ -9446,8 +11040,11 @@
       <c r="G533">
         <v>2.8380499999999999E-2</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H533">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>41944</v>
       </c>
@@ -9469,8 +11066,11 @@
       <c r="G534">
         <v>2.8380499999999999E-2</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H534">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>41974</v>
       </c>
@@ -9492,8 +11092,11 @@
       <c r="G535">
         <v>2.8380499999999999E-2</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H535">
+        <v>7.461900282294387E-2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>42005</v>
       </c>
@@ -9515,8 +11118,11 @@
       <c r="G536">
         <v>2.81455E-2</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H536">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>42036</v>
       </c>
@@ -9538,8 +11144,11 @@
       <c r="G537">
         <v>2.81455E-2</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H537">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>42064</v>
       </c>
@@ -9561,8 +11170,11 @@
       <c r="G538">
         <v>2.81455E-2</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H538">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>42095</v>
       </c>
@@ -9584,8 +11196,11 @@
       <c r="G539">
         <v>2.7304499999999999E-2</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H539">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>42125</v>
       </c>
@@ -9607,8 +11222,11 @@
       <c r="G540">
         <v>2.7304499999999999E-2</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H540">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>42156</v>
       </c>
@@ -9630,8 +11248,11 @@
       <c r="G541">
         <v>2.7304499999999999E-2</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H541">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>42186</v>
       </c>
@@ -9653,8 +11274,11 @@
       <c r="G542">
         <v>2.77285E-2</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H542">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>42217</v>
       </c>
@@ -9676,8 +11300,11 @@
       <c r="G543">
         <v>2.77285E-2</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H543">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>42248</v>
       </c>
@@ -9699,8 +11326,11 @@
       <c r="G544">
         <v>2.77285E-2</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H544">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>42278</v>
       </c>
@@ -9722,8 +11352,11 @@
       <c r="G545">
         <v>2.6652249999999999E-2</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H545">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>42309</v>
       </c>
@@ -9745,8 +11378,11 @@
       <c r="G546">
         <v>2.6652249999999999E-2</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H546">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>42339</v>
       </c>
@@ -9768,8 +11404,11 @@
       <c r="G547">
         <v>2.6652249999999999E-2</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H547">
+        <v>6.9787800265746824E-2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>42370</v>
       </c>
@@ -9791,8 +11430,11 @@
       <c r="G548">
         <v>2.3199000000000001E-2</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H548">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>42401</v>
       </c>
@@ -9814,8 +11456,11 @@
       <c r="G549">
         <v>2.3199000000000001E-2</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H549">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>42430</v>
       </c>
@@ -9837,8 +11482,11 @@
       <c r="G550">
         <v>2.3199000000000001E-2</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H550">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>42461</v>
       </c>
@@ -9860,8 +11508,11 @@
       <c r="G551">
         <v>2.301125E-2</v>
       </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H551">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>42491</v>
       </c>
@@ -9883,8 +11534,11 @@
       <c r="G552">
         <v>2.301125E-2</v>
       </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H552">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>42522</v>
       </c>
@@ -9906,8 +11560,11 @@
       <c r="G553">
         <v>2.301125E-2</v>
       </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H553">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>42552</v>
       </c>
@@ -9929,8 +11586,11 @@
       <c r="G554">
         <v>2.3647749999999999E-2</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H554">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>42583</v>
       </c>
@@ -9952,8 +11612,11 @@
       <c r="G555">
         <v>2.3647749999999999E-2</v>
       </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H555">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>42614</v>
       </c>
@@ -9975,8 +11638,11 @@
       <c r="G556">
         <v>2.3647749999999999E-2</v>
       </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H556">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>42644</v>
       </c>
@@ -9998,8 +11664,11 @@
       <c r="G557">
         <v>2.189075E-2</v>
       </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H557">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>42675</v>
       </c>
@@ -10021,8 +11690,11 @@
       <c r="G558">
         <v>2.189075E-2</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H558">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>42705</v>
       </c>
@@ -10044,8 +11716,11 @@
       <c r="G559">
         <v>2.189075E-2</v>
       </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H559">
+        <v>6.7755556283702223E-2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>42736</v>
       </c>
@@ -10067,8 +11742,11 @@
       <c r="G560">
         <v>2.3184E-2</v>
       </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H560">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>42767</v>
       </c>
@@ -10090,8 +11768,11 @@
       <c r="G561">
         <v>2.3184E-2</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H561">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>42795</v>
       </c>
@@ -10113,8 +11794,11 @@
       <c r="G562">
         <v>2.3184E-2</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H562">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>42826</v>
       </c>
@@ -10136,8 +11820,11 @@
       <c r="G563">
         <v>2.615725E-2</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H563">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>42856</v>
       </c>
@@ -10159,8 +11846,11 @@
       <c r="G564">
         <v>2.615725E-2</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H564">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>42887</v>
       </c>
@@ -10182,8 +11872,11 @@
       <c r="G565">
         <v>2.615725E-2</v>
       </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H565">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>42917</v>
       </c>
@@ -10205,8 +11898,11 @@
       <c r="G566">
         <v>2.3998499999999999E-2</v>
       </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H566">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>42948</v>
       </c>
@@ -10228,8 +11924,11 @@
       <c r="G567">
         <v>2.3998499999999999E-2</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H567">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>42979</v>
       </c>
@@ -10251,8 +11950,11 @@
       <c r="G568">
         <v>2.3998499999999999E-2</v>
       </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H568">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>43009</v>
       </c>
@@ -10274,8 +11976,11 @@
       <c r="G569">
         <v>2.3755999999999999E-2</v>
       </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H569">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>43040</v>
       </c>
@@ -10297,8 +12002,11 @@
       <c r="G570">
         <v>2.3755999999999999E-2</v>
       </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H570">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>43070</v>
       </c>
@@ -10320,8 +12028,11 @@
       <c r="G571">
         <v>2.3755999999999999E-2</v>
       </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H571">
+        <v>6.8912663621210735E-2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>43101</v>
       </c>
@@ -10343,8 +12054,11 @@
       <c r="G572">
         <v>2.79165E-2</v>
       </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H572">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>43132</v>
       </c>
@@ -10366,8 +12080,11 @@
       <c r="G573">
         <v>2.79165E-2</v>
       </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H573">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>43160</v>
       </c>
@@ -10389,8 +12106,11 @@
       <c r="G574">
         <v>2.79165E-2</v>
       </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H574">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>43191</v>
       </c>
@@ -10412,8 +12132,11 @@
       <c r="G575">
         <v>2.80235E-2</v>
       </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H575">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>43221</v>
       </c>
@@ -10435,8 +12158,11 @@
       <c r="G576">
         <v>2.80235E-2</v>
       </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H576">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>43252</v>
       </c>
@@ -10458,8 +12184,11 @@
       <c r="G577">
         <v>2.80235E-2</v>
       </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H577">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>43282</v>
       </c>
@@ -10481,8 +12210,11 @@
       <c r="G578">
         <v>2.7615500000000001E-2</v>
       </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H578">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>43313</v>
       </c>
@@ -10504,8 +12236,11 @@
       <c r="G579">
         <v>2.7615500000000001E-2</v>
       </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H579">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>43344</v>
       </c>
@@ -10527,8 +12262,11 @@
       <c r="G580">
         <v>2.7615500000000001E-2</v>
       </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H580">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>43374</v>
       </c>
@@ -10550,8 +12288,11 @@
       <c r="G581">
         <v>2.5072750000000001E-2</v>
       </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H581">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>43405</v>
       </c>
@@ -10573,8 +12314,11 @@
       <c r="G582">
         <v>2.5072750000000001E-2</v>
       </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H582">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>43435</v>
       </c>
@@ -10596,8 +12340,11 @@
       <c r="G583">
         <v>2.5072750000000001E-2</v>
       </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H583">
+        <v>6.7567180016683492E-2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>43466</v>
       </c>
@@ -10619,8 +12366,11 @@
       <c r="G584">
         <v>2.0663000000000001E-2</v>
       </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H584">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>43497</v>
       </c>
@@ -10642,8 +12392,11 @@
       <c r="G585">
         <v>2.0663000000000001E-2</v>
       </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H585">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>43525</v>
       </c>
@@ -10665,8 +12418,11 @@
       <c r="G586">
         <v>2.0663000000000001E-2</v>
       </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H586">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>43556</v>
       </c>
@@ -10688,8 +12444,11 @@
       <c r="G587">
         <v>2.049925E-2</v>
       </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H587">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>43586</v>
       </c>
@@ -10711,8 +12470,11 @@
       <c r="G588">
         <v>2.049925E-2</v>
       </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H588">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>43617</v>
       </c>
@@ -10734,8 +12496,11 @@
       <c r="G589">
         <v>2.049925E-2</v>
       </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H589">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>43647</v>
       </c>
@@ -10757,8 +12522,11 @@
       <c r="G590">
         <v>1.9252499999999999E-2</v>
       </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H590">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>43678</v>
       </c>
@@ -10780,8 +12548,11 @@
       <c r="G591">
         <v>1.9252499999999999E-2</v>
       </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H591">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>43709</v>
       </c>
@@ -10803,8 +12574,11 @@
       <c r="G592">
         <v>1.9252499999999999E-2</v>
       </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H592">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>43739</v>
       </c>
@@ -10826,8 +12600,11 @@
       <c r="G593">
         <v>1.7365499999999999E-2</v>
       </c>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H593">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>43770</v>
       </c>
@@ -10849,8 +12626,11 @@
       <c r="G594">
         <v>1.7365499999999999E-2</v>
       </c>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H594">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>43800</v>
       </c>
@@ -10872,8 +12652,11 @@
       <c r="G595">
         <v>1.7365499999999999E-2</v>
       </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H595">
+        <v>6.0685023505370861E-2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>43831</v>
       </c>
@@ -10895,8 +12678,11 @@
       <c r="G596">
         <v>1.9797749999999999E-2</v>
       </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H596">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>43862</v>
       </c>
@@ -10918,8 +12704,11 @@
       <c r="G597">
         <v>1.9797749999999999E-2</v>
       </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H597">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>43891</v>
       </c>
@@ -10941,8 +12730,11 @@
       <c r="G598">
         <v>1.9797749999999999E-2</v>
       </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H598">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>43922</v>
       </c>
@@ -10964,8 +12756,11 @@
       <c r="G599">
         <v>-2.088075E-2</v>
       </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H599">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>43952</v>
       </c>
@@ -10987,8 +12782,11 @@
       <c r="G600">
         <v>-2.088075E-2</v>
       </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H600">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>43983</v>
       </c>
@@ -11010,8 +12808,11 @@
       <c r="G601">
         <v>-2.088075E-2</v>
       </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H601">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>44013</v>
       </c>
@@ -11033,8 +12834,11 @@
       <c r="G602">
         <v>8.4930249999999999E-2</v>
       </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H602">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>44044</v>
       </c>
@@ -11056,8 +12860,11 @@
       <c r="G603">
         <v>8.4930249999999999E-2</v>
       </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H603">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>44075</v>
       </c>
@@ -11079,8 +12886,11 @@
       <c r="G604">
         <v>8.4930249999999999E-2</v>
       </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H604">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>44105</v>
       </c>
@@ -11102,8 +12912,11 @@
       <c r="G605">
         <v>3.5444249999999997E-2</v>
       </c>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H605">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>44136</v>
       </c>
@@ -11125,8 +12938,11 @@
       <c r="G606">
         <v>3.5444249999999997E-2</v>
       </c>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H606">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>44166</v>
       </c>
@@ -11148,8 +12964,11 @@
       <c r="G607">
         <v>3.5444249999999997E-2</v>
       </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H607">
+        <v>2.3401884307840959E-2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>44197</v>
       </c>
@@ -11171,8 +12990,11 @@
       <c r="G608">
         <v>4.3898E-2</v>
       </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H608">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>44228</v>
       </c>
@@ -11194,8 +13016,11 @@
       <c r="G609">
         <v>4.3898E-2</v>
       </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H609">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>44256</v>
       </c>
@@ -11217,8 +13042,11 @@
       <c r="G610">
         <v>4.3898E-2</v>
       </c>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H610">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>44287</v>
       </c>
@@ -11240,8 +13068,11 @@
       <c r="G611">
         <v>6.0913500000000002E-2</v>
       </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H611">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>44317</v>
       </c>
@@ -11263,8 +13094,11 @@
       <c r="G612">
         <v>6.0913500000000002E-2</v>
       </c>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H612">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>44348</v>
       </c>
@@ -11286,8 +13120,11 @@
       <c r="G613">
         <v>6.0913500000000002E-2</v>
       </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H613">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>44378</v>
       </c>
@@ -11309,8 +13146,11 @@
       <c r="G614">
         <v>4.9584499999999997E-2</v>
       </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H614">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>44409</v>
       </c>
@@ -11332,8 +13172,11 @@
       <c r="G615">
         <v>4.9584499999999997E-2</v>
       </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H615">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>44440</v>
       </c>
@@ -11355,8 +13198,11 @@
       <c r="G616">
         <v>4.9584499999999997E-2</v>
       </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H616">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>44470</v>
       </c>
@@ -11378,8 +13224,11 @@
       <c r="G617">
         <v>3.8912250000000002E-2</v>
       </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H617">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>44501</v>
       </c>
@@ -11401,8 +13250,11 @@
       <c r="G618">
         <v>3.8912250000000002E-2</v>
       </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H618">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>44531</v>
       </c>
@@ -11424,8 +13276,11 @@
       <c r="G619">
         <v>3.8912250000000002E-2</v>
       </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H619">
+        <v>8.5700851316632631E-2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>44562</v>
       </c>
@@ -11447,8 +13302,11 @@
       <c r="G620">
         <v>2.9500749999999999E-2</v>
       </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H620">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>44593</v>
       </c>
@@ -11470,8 +13328,11 @@
       <c r="G621">
         <v>2.9500749999999999E-2</v>
       </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H621">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>44621</v>
       </c>
@@ -11493,8 +13354,11 @@
       <c r="G622">
         <v>2.9500749999999999E-2</v>
       </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H622">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>44652</v>
       </c>
@@ -11516,8 +13380,11 @@
       <c r="G623">
         <v>2.3139750000000001E-2</v>
       </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H623">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>44682</v>
       </c>
@@ -11539,8 +13406,11 @@
       <c r="G624">
         <v>2.3139750000000001E-2</v>
       </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H624">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>44713</v>
       </c>
@@ -11562,8 +13432,11 @@
       <c r="G625">
         <v>2.3139750000000001E-2</v>
       </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H625">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>44743</v>
       </c>
@@ -11585,8 +13458,11 @@
       <c r="G626">
         <v>1.2999749999999999E-2</v>
       </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H626">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>44774</v>
       </c>
@@ -11608,8 +13484,11 @@
       <c r="G627">
         <v>1.2999749999999999E-2</v>
       </c>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H627">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>44805</v>
       </c>
@@ -11631,8 +13510,11 @@
       <c r="G628">
         <v>1.2999749999999999E-2</v>
       </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H628">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>44835</v>
       </c>
@@ -11654,8 +13536,11 @@
       <c r="G629">
         <v>5.6982500000000002E-3</v>
       </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H629">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>44866</v>
       </c>
@@ -11677,8 +13562,11 @@
       <c r="G630">
         <v>5.6982500000000002E-3</v>
       </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H630">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>44896</v>
       </c>
@@ -11700,8 +13588,11 @@
       <c r="G631">
         <v>5.6982500000000002E-3</v>
       </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H631">
+        <v>3.134188871957666E-2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>44927</v>
       </c>
@@ -11723,8 +13614,11 @@
       <c r="G632">
         <v>6.6140000000000001E-3</v>
       </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H632">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>44958</v>
       </c>
@@ -11746,8 +13640,11 @@
       <c r="G633">
         <v>6.6140000000000001E-3</v>
       </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H633">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>44986</v>
       </c>
@@ -11769,8 +13666,11 @@
       <c r="G634">
         <v>6.6140000000000001E-3</v>
       </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H634">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>45017</v>
       </c>
@@ -11792,8 +13692,11 @@
       <c r="G635">
         <v>6.2422500000000004E-3</v>
       </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H635">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>45047</v>
       </c>
@@ -11815,8 +13718,11 @@
       <c r="G636">
         <v>6.2422500000000004E-3</v>
       </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H636">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>45078</v>
       </c>
@@ -11838,8 +13744,11 @@
       <c r="G637">
         <v>6.2422500000000004E-3</v>
       </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H637">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>45108</v>
       </c>
@@ -11861,8 +13770,11 @@
       <c r="G638">
         <v>1.2945E-2</v>
       </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H638">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>45139</v>
       </c>
@@ -11884,8 +13796,11 @@
       <c r="G639">
         <v>1.2945E-2</v>
       </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H639">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>45170</v>
       </c>
@@ -11907,8 +13822,11 @@
       <c r="G640">
         <v>1.2945E-2</v>
       </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H640">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>45200</v>
       </c>
@@ -11930,8 +13848,11 @@
       <c r="G641">
         <v>1.223925E-2</v>
       </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H641">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>45231</v>
       </c>
@@ -11953,8 +13874,11 @@
       <c r="G642">
         <v>1.223925E-2</v>
       </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H642">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>45261</v>
       </c>
@@ -11976,8 +13900,11 @@
       <c r="G643">
         <v>1.223925E-2</v>
       </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H643">
+        <v>5.4148433009967523E-2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>45292</v>
       </c>
@@ -11999,8 +13926,11 @@
       <c r="G644">
         <v>1.7204500000000001E-2</v>
       </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H644">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>45323</v>
       </c>
@@ -12022,8 +13952,11 @@
       <c r="G645">
         <v>1.7204500000000001E-2</v>
       </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H645">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>45352</v>
       </c>
@@ -12045,8 +13978,11 @@
       <c r="G646">
         <v>1.7204500000000001E-2</v>
       </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H646">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>45383</v>
       </c>
@@ -12068,8 +14004,11 @@
       <c r="G647">
         <v>1.8752000000000001E-2</v>
       </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H647">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>45413</v>
       </c>
@@ -12091,8 +14030,11 @@
       <c r="G648">
         <v>1.8752000000000001E-2</v>
       </c>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H648">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>45444</v>
       </c>
@@ -12114,8 +14056,11 @@
       <c r="G649">
         <v>1.8752000000000001E-2</v>
       </c>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H649">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>45474</v>
       </c>
@@ -12137,8 +14082,11 @@
       <c r="G650">
         <v>1.7874999999999999E-2</v>
       </c>
-    </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H650">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>45505</v>
       </c>
@@ -12160,8 +14108,11 @@
       <c r="G651">
         <v>1.7874999999999999E-2</v>
       </c>
-    </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H651">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>45536</v>
       </c>
@@ -12183,8 +14134,11 @@
       <c r="G652">
         <v>1.7874999999999999E-2</v>
       </c>
-    </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H652">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>45566</v>
       </c>
@@ -12206,8 +14160,11 @@
       <c r="G653">
         <v>2.0206749999999999E-2</v>
       </c>
-    </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H653">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>45597</v>
       </c>
@@ -12229,8 +14186,11 @@
       <c r="G654">
         <v>2.0206749999999999E-2</v>
       </c>
-    </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H654">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>45627</v>
       </c>
@@ -12252,8 +14212,11 @@
       <c r="G655">
         <v>2.0206749999999999E-2</v>
       </c>
-    </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H655">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>45658</v>
       </c>
@@ -12275,8 +14238,11 @@
       <c r="G656">
         <v>2.17485E-2</v>
       </c>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H656">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>45689</v>
       </c>
@@ -12298,8 +14264,11 @@
       <c r="G657">
         <v>2.17485E-2</v>
       </c>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H657">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>45717</v>
       </c>
@@ -12321,8 +14290,11 @@
       <c r="G658">
         <v>2.17485E-2</v>
       </c>
-    </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H658">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>45748</v>
       </c>
@@ -12344,8 +14316,11 @@
       <c r="G659">
         <v>1.34535E-2</v>
       </c>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H659">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>45778</v>
       </c>
@@ -12367,8 +14342,11 @@
       <c r="G660">
         <v>1.34535E-2</v>
       </c>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H660">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>45809</v>
       </c>
@@ -12390,8 +14368,11 @@
       <c r="G661">
         <v>1.34535E-2</v>
       </c>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H661">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>45839</v>
       </c>
@@ -12413,8 +14394,11 @@
       <c r="G662">
         <v>1.4501750000000001E-2</v>
       </c>
-    </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H662">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>45870</v>
       </c>
@@ -12436,8 +14420,11 @@
       <c r="G663">
         <v>1.4501750000000001E-2</v>
       </c>
-    </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H663">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>45901</v>
       </c>
@@ -12459,8 +14446,11 @@
       <c r="G664">
         <v>1.4501750000000001E-2</v>
       </c>
-    </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H664">
+        <v>4.9773565917571982E-2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>45931</v>
       </c>
@@ -12481,6 +14471,9 @@
       </c>
       <c r="G665">
         <v>1.563225E-2</v>
+      </c>
+      <c r="H665">
+        <v>4.9773565917571982E-2</v>
       </c>
     </row>
   </sheetData>
